--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H2">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I2">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J2">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07102499539954</v>
+        <v>1.204407</v>
       </c>
       <c r="N2">
-        <v>1.07102499539954</v>
+        <v>3.613221</v>
       </c>
       <c r="O2">
-        <v>0.2532992270943277</v>
+        <v>0.2602590387845083</v>
       </c>
       <c r="P2">
-        <v>0.2532992270943277</v>
+        <v>0.3020685960588353</v>
       </c>
       <c r="Q2">
-        <v>34.06187384664498</v>
+        <v>50.01695715199501</v>
       </c>
       <c r="R2">
-        <v>34.06187384664498</v>
+        <v>450.152614367955</v>
       </c>
       <c r="S2">
-        <v>0.02880442881888956</v>
+        <v>0.0358810580446916</v>
       </c>
       <c r="T2">
-        <v>0.02880442881888956</v>
+        <v>0.04408382814855499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H3">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I3">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J3">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.758919291894193</v>
+        <v>0.7651296666666667</v>
       </c>
       <c r="N3">
-        <v>0.758919291894193</v>
+        <v>2.295389</v>
       </c>
       <c r="O3">
-        <v>0.1794856991101892</v>
+        <v>0.165336062968895</v>
       </c>
       <c r="P3">
-        <v>0.1794856991101892</v>
+        <v>0.1918966298045135</v>
       </c>
       <c r="Q3">
-        <v>24.13595694901766</v>
+        <v>31.77452285928834</v>
       </c>
       <c r="R3">
-        <v>24.13595694901766</v>
+        <v>285.970705733595</v>
       </c>
       <c r="S3">
-        <v>0.02041057567894904</v>
+        <v>0.02279433943956005</v>
       </c>
       <c r="T3">
-        <v>0.02041057567894904</v>
+        <v>0.02800535428363875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H4">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I4">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J4">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.322780084788134</v>
+        <v>0.4684373333333333</v>
       </c>
       <c r="N4">
-        <v>0.322780084788134</v>
+        <v>1.405312</v>
       </c>
       <c r="O4">
-        <v>0.07633803725353377</v>
+        <v>0.1012241294712764</v>
       </c>
       <c r="P4">
-        <v>0.07633803725353377</v>
+        <v>0.1174853746462323</v>
       </c>
       <c r="Q4">
-        <v>10.26539490253573</v>
+        <v>19.45339908330667</v>
       </c>
       <c r="R4">
-        <v>10.26539490253573</v>
+        <v>175.08059174976</v>
       </c>
       <c r="S4">
-        <v>0.008680932766621907</v>
+        <v>0.01395543794384612</v>
       </c>
       <c r="T4">
-        <v>0.008680932766621907</v>
+        <v>0.01714579116613739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H5">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I5">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J5">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.210604196366238</v>
+        <v>0.268169</v>
       </c>
       <c r="N5">
-        <v>0.210604196366238</v>
+        <v>0.804507</v>
       </c>
       <c r="O5">
-        <v>0.0498082494727303</v>
+        <v>0.05794835647069704</v>
       </c>
       <c r="P5">
-        <v>0.0498082494727303</v>
+        <v>0.06725752452161256</v>
       </c>
       <c r="Q5">
-        <v>6.697858219008963</v>
+        <v>11.136598660165</v>
       </c>
       <c r="R5">
-        <v>6.697858219008963</v>
+        <v>100.229387941485</v>
       </c>
       <c r="S5">
-        <v>0.005664044825515701</v>
+        <v>0.007989149394504434</v>
       </c>
       <c r="T5">
-        <v>0.005664044825515701</v>
+        <v>0.009815549154704218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.803061546606</v>
+        <v>41.528285</v>
       </c>
       <c r="H6">
-        <v>31.803061546606</v>
+        <v>124.584855</v>
       </c>
       <c r="I6">
-        <v>0.1137170024137614</v>
+        <v>0.137866712381124</v>
       </c>
       <c r="J6">
-        <v>0.1137170024137614</v>
+        <v>0.145939792231724</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.86497093205015</v>
+        <v>1.921581</v>
       </c>
       <c r="N6">
-        <v>1.86497093205015</v>
+        <v>3.843162</v>
       </c>
       <c r="O6">
-        <v>0.441068787069219</v>
+        <v>0.4152324123046232</v>
       </c>
       <c r="P6">
-        <v>0.441068787069219</v>
+        <v>0.3212918749688064</v>
       </c>
       <c r="Q6">
-        <v>59.31178533462207</v>
+        <v>79.79996341858499</v>
       </c>
       <c r="R6">
-        <v>59.31178533462207</v>
+        <v>478.7997805115099</v>
       </c>
       <c r="S6">
-        <v>0.05015702032378519</v>
+        <v>0.05724672755852176</v>
       </c>
       <c r="T6">
-        <v>0.05015702032378519</v>
+        <v>0.04688926947868865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H7">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I7">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J7">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.07102499539954</v>
+        <v>1.204407</v>
       </c>
       <c r="N7">
-        <v>1.07102499539954</v>
+        <v>3.613221</v>
       </c>
       <c r="O7">
-        <v>0.2532992270943277</v>
+        <v>0.2602590387845083</v>
       </c>
       <c r="P7">
-        <v>0.2532992270943277</v>
+        <v>0.3020685960588353</v>
       </c>
       <c r="Q7">
-        <v>70.03201984752233</v>
+        <v>86.743959534255</v>
       </c>
       <c r="R7">
-        <v>70.03201984752233</v>
+        <v>780.6956358082949</v>
       </c>
       <c r="S7">
-        <v>0.05922258827635554</v>
+        <v>0.06222819668170952</v>
       </c>
       <c r="T7">
-        <v>0.05922258827635554</v>
+        <v>0.07645418719520765</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H8">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I8">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J8">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.758919291894193</v>
+        <v>0.7651296666666667</v>
       </c>
       <c r="N8">
-        <v>0.758919291894193</v>
+        <v>2.295389</v>
       </c>
       <c r="O8">
-        <v>0.1794856991101892</v>
+        <v>0.165336062968895</v>
       </c>
       <c r="P8">
-        <v>0.1794856991101892</v>
+        <v>0.1918966298045135</v>
       </c>
       <c r="Q8">
-        <v>49.6240994756382</v>
+        <v>55.10626959473944</v>
       </c>
       <c r="R8">
-        <v>49.6240994756382</v>
+        <v>495.956426352655</v>
       </c>
       <c r="S8">
-        <v>0.04196462729804596</v>
+        <v>0.03953201815029652</v>
       </c>
       <c r="T8">
-        <v>0.04196462729804596</v>
+        <v>0.04856943438882385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H9">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I9">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J9">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.322780084788134</v>
+        <v>0.4684373333333333</v>
       </c>
       <c r="N9">
-        <v>0.322780084788134</v>
+        <v>1.405312</v>
       </c>
       <c r="O9">
-        <v>0.07633803725353377</v>
+        <v>0.1012241294712764</v>
       </c>
       <c r="P9">
-        <v>0.07633803725353377</v>
+        <v>0.1174853746462323</v>
       </c>
       <c r="Q9">
-        <v>21.10589519513024</v>
+        <v>33.73785529891556</v>
       </c>
       <c r="R9">
-        <v>21.10589519513024</v>
+        <v>303.64069769024</v>
       </c>
       <c r="S9">
-        <v>0.01784820349415256</v>
+        <v>0.02420279067767141</v>
       </c>
       <c r="T9">
-        <v>0.01784820349415256</v>
+        <v>0.02973579161520196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H10">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I10">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J10">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.210604196366238</v>
+        <v>0.268169</v>
       </c>
       <c r="N10">
-        <v>0.210604196366238</v>
+        <v>0.804507</v>
       </c>
       <c r="O10">
-        <v>0.0498082494727303</v>
+        <v>0.05794835647069704</v>
       </c>
       <c r="P10">
-        <v>0.0498082494727303</v>
+        <v>0.06725752452161256</v>
       </c>
       <c r="Q10">
-        <v>13.77095522816423</v>
+        <v>19.31410302691833</v>
       </c>
       <c r="R10">
-        <v>13.77095522816423</v>
+        <v>173.826927242265</v>
       </c>
       <c r="S10">
-        <v>0.01164541039120907</v>
+        <v>0.01385551003600723</v>
       </c>
       <c r="T10">
-        <v>0.01164541039120907</v>
+        <v>0.0170230187353209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.38784822794661</v>
+        <v>72.02213166666667</v>
       </c>
       <c r="H11">
-        <v>65.38784822794661</v>
+        <v>216.066395</v>
       </c>
       <c r="I11">
-        <v>0.2338048518967697</v>
+        <v>0.2391010009578718</v>
       </c>
       <c r="J11">
-        <v>0.2338048518967697</v>
+        <v>0.2531020708300187</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.86497093205015</v>
+        <v>1.921581</v>
       </c>
       <c r="N11">
-        <v>1.86497093205015</v>
+        <v>3.843162</v>
       </c>
       <c r="O11">
-        <v>0.441068787069219</v>
+        <v>0.4152324123046232</v>
       </c>
       <c r="P11">
-        <v>0.441068787069219</v>
+        <v>0.3212918749688064</v>
       </c>
       <c r="Q11">
-        <v>121.9464362544273</v>
+        <v>138.396359790165</v>
       </c>
       <c r="R11">
-        <v>121.9464362544273</v>
+        <v>830.3781587409899</v>
       </c>
       <c r="S11">
-        <v>0.1031240224370066</v>
+        <v>0.09928248541218712</v>
       </c>
       <c r="T11">
-        <v>0.1031240224370066</v>
+        <v>0.08131963889546434</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H12">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I12">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J12">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.07102499539954</v>
+        <v>1.204407</v>
       </c>
       <c r="N12">
-        <v>1.07102499539954</v>
+        <v>3.613221</v>
       </c>
       <c r="O12">
-        <v>0.2532992270943277</v>
+        <v>0.2602590387845083</v>
       </c>
       <c r="P12">
-        <v>0.2532992270943277</v>
+        <v>0.3020685960588353</v>
       </c>
       <c r="Q12">
-        <v>66.67827048401961</v>
+        <v>78.68978320293901</v>
       </c>
       <c r="R12">
-        <v>66.67827048401961</v>
+        <v>708.208048826451</v>
       </c>
       <c r="S12">
-        <v>0.05638648961506812</v>
+        <v>0.05645030884323265</v>
       </c>
       <c r="T12">
-        <v>0.05638648961506812</v>
+        <v>0.0693554161886285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H13">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I13">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J13">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.758919291894193</v>
+        <v>0.7651296666666667</v>
       </c>
       <c r="N13">
-        <v>0.758919291894193</v>
+        <v>2.295389</v>
       </c>
       <c r="O13">
-        <v>0.1794856991101892</v>
+        <v>0.165336062968895</v>
       </c>
       <c r="P13">
-        <v>0.1794856991101892</v>
+        <v>0.1918966298045135</v>
       </c>
       <c r="Q13">
-        <v>47.24766092091463</v>
+        <v>49.98965266071767</v>
       </c>
       <c r="R13">
-        <v>47.24766092091463</v>
+        <v>449.9068739464591</v>
       </c>
       <c r="S13">
-        <v>0.0399549916714158</v>
+        <v>0.03586147040697454</v>
       </c>
       <c r="T13">
-        <v>0.0399549916714158</v>
+        <v>0.04405976258020193</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H14">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I14">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J14">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.322780084788134</v>
+        <v>0.4684373333333333</v>
       </c>
       <c r="N14">
-        <v>0.322780084788134</v>
+        <v>1.405312</v>
       </c>
       <c r="O14">
-        <v>0.07633803725353377</v>
+        <v>0.1012241294712764</v>
       </c>
       <c r="P14">
-        <v>0.07633803725353377</v>
+        <v>0.1174853746462323</v>
       </c>
       <c r="Q14">
-        <v>20.09515920992036</v>
+        <v>30.60529555554134</v>
       </c>
       <c r="R14">
-        <v>20.09515920992036</v>
+        <v>275.447659999872</v>
       </c>
       <c r="S14">
-        <v>0.0169934744539434</v>
+        <v>0.02195556165014566</v>
       </c>
       <c r="T14">
-        <v>0.0169934744539434</v>
+        <v>0.02697482347049181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H15">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I15">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J15">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.210604196366238</v>
+        <v>0.268169</v>
       </c>
       <c r="N15">
-        <v>0.210604196366238</v>
+        <v>0.804507</v>
       </c>
       <c r="O15">
-        <v>0.0498082494727303</v>
+        <v>0.05794835647069704</v>
       </c>
       <c r="P15">
-        <v>0.0498082494727303</v>
+        <v>0.06725752452161256</v>
       </c>
       <c r="Q15">
-        <v>13.11148071305192</v>
+        <v>17.520788630213</v>
       </c>
       <c r="R15">
-        <v>13.11148071305192</v>
+        <v>157.687097671917</v>
       </c>
       <c r="S15">
-        <v>0.01108772566681757</v>
+        <v>0.01256902597890983</v>
       </c>
       <c r="T15">
-        <v>0.01108772566681757</v>
+        <v>0.01544243150686464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.2565026684047</v>
+        <v>65.33487700000001</v>
       </c>
       <c r="H16">
-        <v>62.2565026684047</v>
+        <v>196.004631</v>
       </c>
       <c r="I16">
-        <v>0.2226082182006422</v>
+        <v>0.2169004738773853</v>
       </c>
       <c r="J16">
-        <v>0.2226082182006422</v>
+        <v>0.2296015444621718</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.86497093205015</v>
+        <v>1.921581</v>
       </c>
       <c r="N16">
-        <v>1.86497093205015</v>
+        <v>3.843162</v>
       </c>
       <c r="O16">
-        <v>0.441068787069219</v>
+        <v>0.4152324123046232</v>
       </c>
       <c r="P16">
-        <v>0.441068787069219</v>
+        <v>0.3212918749688064</v>
       </c>
       <c r="Q16">
-        <v>116.1065678076774</v>
+        <v>125.546258280537</v>
       </c>
       <c r="R16">
-        <v>116.1065678076774</v>
+        <v>753.277549683222</v>
       </c>
       <c r="S16">
-        <v>0.09818553679339728</v>
+        <v>0.09006410699812259</v>
       </c>
       <c r="T16">
-        <v>0.09818553679339728</v>
+        <v>0.07376911071598495</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H17">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I17">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J17">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.07102499539954</v>
+        <v>1.204407</v>
       </c>
       <c r="N17">
-        <v>1.07102499539954</v>
+        <v>3.613221</v>
       </c>
       <c r="O17">
-        <v>0.2532992270943277</v>
+        <v>0.2602590387845083</v>
       </c>
       <c r="P17">
-        <v>0.2532992270943277</v>
+        <v>0.3020685960588353</v>
       </c>
       <c r="Q17">
-        <v>77.38850907780153</v>
+        <v>87.13474945885501</v>
       </c>
       <c r="R17">
-        <v>77.38850907780153</v>
+        <v>784.212745129695</v>
       </c>
       <c r="S17">
-        <v>0.0654436045171099</v>
+        <v>0.06250854072433577</v>
       </c>
       <c r="T17">
-        <v>0.0654436045171099</v>
+        <v>0.07679862070054667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H18">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I18">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J18">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.758919291894193</v>
+        <v>0.7651296666666667</v>
       </c>
       <c r="N18">
-        <v>0.758919291894193</v>
+        <v>2.295389</v>
       </c>
       <c r="O18">
-        <v>0.1794856991101892</v>
+        <v>0.165336062968895</v>
       </c>
       <c r="P18">
-        <v>0.1794856991101892</v>
+        <v>0.1918966298045135</v>
       </c>
       <c r="Q18">
-        <v>54.83684579010497</v>
+        <v>55.35452866725057</v>
       </c>
       <c r="R18">
-        <v>54.83684579010497</v>
+        <v>498.1907580052551</v>
       </c>
       <c r="S18">
-        <v>0.04637278701474271</v>
+        <v>0.03971011371424343</v>
       </c>
       <c r="T18">
-        <v>0.04637278701474271</v>
+        <v>0.048788244386714</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H19">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I19">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J19">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.322780084788134</v>
+        <v>0.4684373333333333</v>
       </c>
       <c r="N19">
-        <v>0.322780084788134</v>
+        <v>1.405312</v>
       </c>
       <c r="O19">
-        <v>0.07633803725353377</v>
+        <v>0.1012241294712764</v>
       </c>
       <c r="P19">
-        <v>0.07633803725353377</v>
+        <v>0.1174853746462323</v>
       </c>
       <c r="Q19">
-        <v>23.32295663411814</v>
+        <v>33.88984759900445</v>
       </c>
       <c r="R19">
-        <v>23.32295663411814</v>
+        <v>305.00862839104</v>
       </c>
       <c r="S19">
-        <v>0.01972306183852758</v>
+        <v>0.02431182658973745</v>
       </c>
       <c r="T19">
-        <v>0.01972306183852758</v>
+        <v>0.0298697542314535</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H20">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I20">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J20">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.210604196366238</v>
+        <v>0.268169</v>
       </c>
       <c r="N20">
-        <v>0.210604196366238</v>
+        <v>0.804507</v>
       </c>
       <c r="O20">
-        <v>0.0498082494727303</v>
+        <v>0.05794835647069704</v>
       </c>
       <c r="P20">
-        <v>0.0498082494727303</v>
+        <v>0.06725752452161256</v>
       </c>
       <c r="Q20">
-        <v>15.21752044286482</v>
+        <v>19.40111492845167</v>
       </c>
       <c r="R20">
-        <v>15.21752044286482</v>
+        <v>174.610034356065</v>
       </c>
       <c r="S20">
-        <v>0.01286869848587826</v>
+        <v>0.01391793044834877</v>
       </c>
       <c r="T20">
-        <v>0.01286869848587826</v>
+        <v>0.01709970908060556</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.2564920615435</v>
+        <v>72.34659833333335</v>
       </c>
       <c r="H21">
-        <v>72.2564920615435</v>
+        <v>217.039795</v>
       </c>
       <c r="I21">
-        <v>0.2583648014557065</v>
+        <v>0.2401781740848285</v>
       </c>
       <c r="J21">
-        <v>0.2583648014557065</v>
+        <v>0.2542423201304522</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.86497093205015</v>
+        <v>1.921581</v>
       </c>
       <c r="N21">
-        <v>1.86497093205015</v>
+        <v>3.843162</v>
       </c>
       <c r="O21">
-        <v>0.441068787069219</v>
+        <v>0.4152324123046232</v>
       </c>
       <c r="P21">
-        <v>0.441068787069219</v>
+        <v>0.3212918749688064</v>
       </c>
       <c r="Q21">
-        <v>134.756257346691</v>
+        <v>139.019848771965</v>
       </c>
       <c r="R21">
-        <v>134.756257346691</v>
+        <v>834.11909263179</v>
       </c>
       <c r="S21">
-        <v>0.1139566495994481</v>
+        <v>0.09972976260816305</v>
       </c>
       <c r="T21">
-        <v>0.1139566495994481</v>
+        <v>0.0816859917311325</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H22">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I22">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J22">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.07102499539954</v>
+        <v>1.204407</v>
       </c>
       <c r="N22">
-        <v>1.07102499539954</v>
+        <v>3.613221</v>
       </c>
       <c r="O22">
-        <v>0.2532992270943277</v>
+        <v>0.2602590387845083</v>
       </c>
       <c r="P22">
-        <v>0.2532992270943277</v>
+        <v>0.3020685960588353</v>
       </c>
       <c r="Q22">
-        <v>51.3712623705789</v>
+        <v>60.206672754108</v>
       </c>
       <c r="R22">
-        <v>51.3712623705789</v>
+        <v>361.240036524648</v>
       </c>
       <c r="S22">
-        <v>0.04344211586690463</v>
+        <v>0.04319093449053878</v>
       </c>
       <c r="T22">
-        <v>0.04344211586690463</v>
+        <v>0.03537654382589753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H23">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I23">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J23">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.758919291894193</v>
+        <v>0.7651296666666667</v>
       </c>
       <c r="N23">
-        <v>0.758919291894193</v>
+        <v>2.295389</v>
       </c>
       <c r="O23">
-        <v>0.1794856991101892</v>
+        <v>0.165336062968895</v>
       </c>
       <c r="P23">
-        <v>0.1794856991101892</v>
+        <v>0.1918966298045135</v>
       </c>
       <c r="Q23">
-        <v>36.40124388268529</v>
+        <v>38.24779452083867</v>
       </c>
       <c r="R23">
-        <v>36.40124388268529</v>
+        <v>229.486767125032</v>
       </c>
       <c r="S23">
-        <v>0.0307827174470357</v>
+        <v>0.02743812125782047</v>
       </c>
       <c r="T23">
-        <v>0.0307827174470357</v>
+        <v>0.02247383416513496</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H24">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I24">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J24">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.322780084788134</v>
+        <v>0.4684373333333333</v>
       </c>
       <c r="N24">
-        <v>0.322780084788134</v>
+        <v>1.405312</v>
       </c>
       <c r="O24">
-        <v>0.07633803725353377</v>
+        <v>0.1012241294712764</v>
       </c>
       <c r="P24">
-        <v>0.07633803725353377</v>
+        <v>0.1174853746462323</v>
       </c>
       <c r="Q24">
-        <v>15.48201068590678</v>
+        <v>23.41654709230933</v>
       </c>
       <c r="R24">
-        <v>15.48201068590678</v>
+        <v>140.499282553856</v>
       </c>
       <c r="S24">
-        <v>0.01309236470028834</v>
+        <v>0.01679851260987579</v>
       </c>
       <c r="T24">
-        <v>0.01309236470028834</v>
+        <v>0.0137592141629476</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H25">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I25">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J25">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.210604196366238</v>
+        <v>0.268169</v>
       </c>
       <c r="N25">
-        <v>0.210604196366238</v>
+        <v>0.804507</v>
       </c>
       <c r="O25">
-        <v>0.0498082494727303</v>
+        <v>0.05794835647069704</v>
       </c>
       <c r="P25">
-        <v>0.0498082494727303</v>
+        <v>0.06725752452161256</v>
       </c>
       <c r="Q25">
-        <v>10.10154149001813</v>
+        <v>13.405404672836</v>
       </c>
       <c r="R25">
-        <v>10.10154149001813</v>
+        <v>80.432428037016</v>
       </c>
       <c r="S25">
-        <v>0.008542370103309705</v>
+        <v>0.009616740612926772</v>
       </c>
       <c r="T25">
-        <v>0.008542370103309705</v>
+        <v>0.007876816044117241</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>47.9645784096898</v>
+        <v>49.988644</v>
       </c>
       <c r="H26">
-        <v>47.9645784096898</v>
+        <v>99.977288</v>
       </c>
       <c r="I26">
-        <v>0.1715051260331203</v>
+        <v>0.1659536386987904</v>
       </c>
       <c r="J26">
-        <v>0.1715051260331203</v>
+        <v>0.1171142723456333</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.86497093205015</v>
+        <v>1.921581</v>
       </c>
       <c r="N26">
-        <v>1.86497093205015</v>
+        <v>3.843162</v>
       </c>
       <c r="O26">
-        <v>0.441068787069219</v>
+        <v>0.4152324123046232</v>
       </c>
       <c r="P26">
-        <v>0.441068787069219</v>
+        <v>0.3212918749688064</v>
       </c>
       <c r="Q26">
-        <v>89.45254450211169</v>
+        <v>96.057228526164</v>
       </c>
       <c r="R26">
-        <v>89.45254450211169</v>
+        <v>384.228914104656</v>
       </c>
       <c r="S26">
-        <v>0.07564555791558189</v>
+        <v>0.06890932972762862</v>
       </c>
       <c r="T26">
-        <v>0.07564555791558189</v>
+        <v>0.03762786414753595</v>
       </c>
     </row>
   </sheetData>
